--- a/doc/Tableau_synthese.xlsx
+++ b/doc/Tableau_synthese.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://testipformation-my.sharepoint.com/personal/r_leroy_ecole-ipssi_net/Documents/IPSSI/PortefolioRL/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://testipformation-my.sharepoint.com/personal/r_leroy_ecole-ipssi_net/Documents/IPSSI/PortfolioRL/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="8_{0D053E2C-BEB4-4762-A5CC-243CE4EEA784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A960C4B-4026-4635-AD1F-1725AC37F46F}"/>
+  <xr:revisionPtr revIDLastSave="281" documentId="8_{0D053E2C-BEB4-4762-A5CC-243CE4EEA784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A206F05-D63E-4CA5-B399-EE5FA376769E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Création d'un profil LinkedIn</t>
   </si>
   <si>
-    <t>Mettre en place un outil de veille technologique (Nom d'outil ou des outils)</t>
-  </si>
-  <si>
     <t>Portfolio: créer un site web personnel</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t xml:space="preserve">Inventaire des équipement de réseaux </t>
   </si>
   <si>
-    <t>Développement d'un application web (site e-commerce)</t>
-  </si>
-  <si>
     <t>Installation et configuration d’un outil d’inventaire et ticketing (GLPI)</t>
   </si>
   <si>
@@ -210,13 +204,25 @@
     <t>07/11/23-310/01/24</t>
   </si>
   <si>
-    <t>21/11/23-21/11/23</t>
-  </si>
-  <si>
     <t>09/05/23-23/06/23</t>
   </si>
   <si>
     <t>https://rleroy77.github.io/PortfolioRL/</t>
+  </si>
+  <si>
+    <t>Création d'une base de donnée</t>
+  </si>
+  <si>
+    <t>07/11/23-310/01/25</t>
+  </si>
+  <si>
+    <t>21/11/23-21/11/24</t>
+  </si>
+  <si>
+    <t>Mettre en place un outil de veille technologique (Google Alerts)</t>
+  </si>
+  <si>
+    <t>Développement d'un application web (site e-commerce) (AP3)</t>
   </si>
 </sst>
 </file>
@@ -953,6 +959,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1245,22 +1255,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AQ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.44140625" customWidth="1"/>
-    <col min="44" max="16384" width="10.88671875" style="1"/>
+    <col min="1" max="1" width="69.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.42578125" customWidth="1"/>
+    <col min="44" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1284,7 @@
       </c>
       <c r="H1" s="33"/>
     </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
@@ -1286,7 +1296,7 @@
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>23</v>
       </c>
@@ -1295,7 +1305,7 @@
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
       <c r="F3" s="40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="35"/>
       <c r="H3" s="41"/>
@@ -1303,7 +1313,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
         <v>25</v>
       </c>
@@ -1321,12 +1331,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -1335,7 +1345,7 @@
       <c r="G5" s="50"/>
       <c r="H5" s="51"/>
     </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1372,7 @@
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="48"/>
       <c r="C7" s="15" t="s">
@@ -1419,7 +1429,7 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="44" t="s">
         <v>19</v>
       </c>
@@ -1466,21 +1476,21 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>20</v>
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="17" t="s">
-        <v>26</v>
-      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1517,21 +1527,21 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1568,21 +1578,21 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1619,21 +1629,21 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>28</v>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C12" s="10"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="23" t="s">
-        <v>31</v>
-      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1670,21 +1680,21 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="23" t="s">
-        <v>31</v>
-      </c>
+      <c r="H13" s="22"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1721,21 +1731,21 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="C14" s="10"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="23" t="s">
-        <v>31</v>
-      </c>
+      <c r="G14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="12"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1772,23 +1782,19 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>31</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15"/>
@@ -1827,20 +1833,20 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="G16" s="17"/>
       <c r="H16" s="12"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -1878,15 +1884,15 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
@@ -1929,25 +1935,23 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="17" t="s">
-        <v>31</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18"/>
@@ -1986,17 +1990,27 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="12"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2033,25 +2047,17 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="12"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2088,23 +2094,23 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21"/>
@@ -2143,23 +2149,23 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22"/>
@@ -2198,14 +2204,24 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="D23" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>30</v>
+      </c>
       <c r="H23" s="12"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -2243,15 +2259,17 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2288,7 +2306,7 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="6"/>
       <c r="C25" s="11"/>
@@ -2333,7 +2351,7 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="11"/>
@@ -2378,17 +2396,15 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2425,7 +2441,7 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="11"/>
@@ -2470,7 +2486,7 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="11"/>
@@ -2515,7 +2531,7 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="11"/>
@@ -2560,15 +2576,15 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2605,15 +2621,15 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2650,191 +2666,56 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
-      <c r="AG33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33"/>
-      <c r="AM33"/>
-      <c r="AN33"/>
-      <c r="AO33"/>
-      <c r="AP33"/>
-      <c r="AQ33"/>
-    </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
-      <c r="AK34"/>
-      <c r="AL34"/>
-      <c r="AM34"/>
-      <c r="AN34"/>
-      <c r="AO34"/>
-      <c r="AP34"/>
-      <c r="AQ34"/>
-    </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-    </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
@@ -2858,21 +2739,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD1390579AA2DB42B60BD32A8BA9EE87" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce71b7aec8dd0a3eeb7f4eba4fd0bd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5f4da1f7-5808-483f-b15f-b2962f27b5ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f76c5cfc8403ec247850bedff2d061a3" ns2:_="">
     <xsd:import namespace="5f4da1f7-5808-483f-b15f-b2962f27b5ab"/>
@@ -3010,10 +2876,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0BFF56-BE1D-4AD9-9F23-E461DD70F79B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C3B37-CA53-4D3A-88F3-906D13649996}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5f4da1f7-5808-483f-b15f-b2962f27b5ab"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3035,19 +2926,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C3B37-CA53-4D3A-88F3-906D13649996}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0BFF56-BE1D-4AD9-9F23-E461DD70F79B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5f4da1f7-5808-483f-b15f-b2962f27b5ab"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/Tableau_synthese.xlsx
+++ b/doc/Tableau_synthese.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://testipformation-my.sharepoint.com/personal/r_leroy_ecole-ipssi_net/Documents/IPSSI/PortfolioRL/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="8_{0D053E2C-BEB4-4762-A5CC-243CE4EEA784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A206F05-D63E-4CA5-B399-EE5FA376769E}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="8_{0D053E2C-BEB4-4762-A5CC-243CE4EEA784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A7C9EF5-1949-49B2-B054-AECA4E6E1B44}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$33</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -198,9 +198,6 @@
     <t>07/11/23-07/11/23</t>
   </si>
   <si>
-    <t>24/10/23-31/01/24</t>
-  </si>
-  <si>
     <t>07/11/23-310/01/24</t>
   </si>
   <si>
@@ -223,6 +220,12 @@
   </si>
   <si>
     <t>Développement d'un application web (site e-commerce) (AP3)</t>
+  </si>
+  <si>
+    <t>Developpement d'une application mobile (AP4)</t>
+  </si>
+  <si>
+    <t>24/10/23-28/02/24</t>
   </si>
 </sst>
 </file>
@@ -959,10 +962,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1255,22 +1254,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ78"/>
+  <dimension ref="A1:AQ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.42578125" customWidth="1"/>
-    <col min="44" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="69.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.44140625" customWidth="1"/>
+    <col min="44" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1283,7 @@
       </c>
       <c r="H1" s="33"/>
     </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>2</v>
       </c>
@@ -1296,7 +1295,7 @@
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
     </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>23</v>
       </c>
@@ -1313,7 +1312,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>25</v>
       </c>
@@ -1331,12 +1330,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -1345,7 +1344,7 @@
       <c r="G5" s="50"/>
       <c r="H5" s="51"/>
     </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1371,7 @@
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="48"/>
       <c r="C7" s="15" t="s">
@@ -1429,7 +1428,7 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>19</v>
       </c>
@@ -1476,7 +1475,7 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>28</v>
       </c>
@@ -1527,7 +1526,7 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>29</v>
       </c>
@@ -1578,9 +1577,9 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>43</v>
@@ -1629,7 +1628,7 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -1680,7 +1679,7 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>27</v>
       </c>
@@ -1731,7 +1730,7 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>32</v>
       </c>
@@ -1782,12 +1781,12 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1833,12 +1832,12 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>30</v>
@@ -1884,12 +1883,12 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>30</v>
@@ -1935,24 +1934,16 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>30</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="G18" s="17"/>
       <c r="H18" s="12"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -1990,23 +1981,21 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>52</v>
+        <v>33</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="F19" s="11"/>
       <c r="G19" s="17" t="s">
         <v>30</v>
       </c>
@@ -2047,17 +2036,27 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="12"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2094,25 +2093,17 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="12"/>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2149,12 +2140,12 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="17" t="s">
@@ -2204,12 +2195,12 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="17" t="s">
@@ -2259,17 +2250,25 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="12"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2306,15 +2305,17 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="12"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2351,7 +2352,7 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="6"/>
       <c r="C26" s="11"/>
@@ -2396,7 +2397,7 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="6"/>
       <c r="C27" s="11"/>
@@ -2441,7 +2442,7 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="6"/>
       <c r="C28" s="11"/>
@@ -2486,7 +2487,7 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="6"/>
       <c r="C29" s="11"/>
@@ -2531,7 +2532,7 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="6"/>
       <c r="C30" s="11"/>
@@ -2576,15 +2577,15 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2621,15 +2622,15 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2666,56 +2667,101 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+    </row>
+    <row r="34" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A21:H21"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
@@ -2739,6 +2785,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD1390579AA2DB42B60BD32A8BA9EE87" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce71b7aec8dd0a3eeb7f4eba4fd0bd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5f4da1f7-5808-483f-b15f-b2962f27b5ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f76c5cfc8403ec247850bedff2d061a3" ns2:_="">
     <xsd:import namespace="5f4da1f7-5808-483f-b15f-b2962f27b5ab"/>
@@ -2876,35 +2937,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C3B37-CA53-4D3A-88F3-906D13649996}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0BFF56-BE1D-4AD9-9F23-E461DD70F79B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5f4da1f7-5808-483f-b15f-b2962f27b5ab"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2926,9 +2962,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0BFF56-BE1D-4AD9-9F23-E461DD70F79B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C3B37-CA53-4D3A-88F3-906D13649996}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5f4da1f7-5808-483f-b15f-b2962f27b5ab"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/Tableau_synthese.xlsx
+++ b/doc/Tableau_synthese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://testipformation-my.sharepoint.com/personal/r_leroy_ecole-ipssi_net/Documents/IPSSI/PortfolioRL/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="8_{0D053E2C-BEB4-4762-A5CC-243CE4EEA784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A7C9EF5-1949-49B2-B054-AECA4E6E1B44}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="8_{0D053E2C-BEB4-4762-A5CC-243CE4EEA784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04BCF1F7-9F3F-4FBC-9258-B660795F3320}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$28</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,12 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
-  </si>
-  <si>
-    <t>SESSION 2023</t>
   </si>
   <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
@@ -129,15 +126,9 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>NOM et prénom : LEROY Rémy</t>
-  </si>
-  <si>
     <t>X SLAM</t>
   </si>
   <si>
-    <t>Centre de formation : IPSSI FORMATION</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -186,36 +177,15 @@
     <t>06/02/23 - 10/04/23</t>
   </si>
   <si>
-    <t>17/10/22-17/1/22</t>
-  </si>
-  <si>
-    <t>24/05/22-31/05/24</t>
-  </si>
-  <si>
     <t>07/03/23 - 31/05/24</t>
   </si>
   <si>
-    <t>07/11/23-07/11/23</t>
-  </si>
-  <si>
-    <t>07/11/23-310/01/24</t>
-  </si>
-  <si>
-    <t>09/05/23-23/06/23</t>
-  </si>
-  <si>
     <t>https://rleroy77.github.io/PortfolioRL/</t>
   </si>
   <si>
     <t>Création d'une base de donnée</t>
   </si>
   <si>
-    <t>07/11/23-310/01/25</t>
-  </si>
-  <si>
-    <t>21/11/23-21/11/24</t>
-  </si>
-  <si>
     <t>Mettre en place un outil de veille technologique (Google Alerts)</t>
   </si>
   <si>
@@ -225,7 +195,49 @@
     <t>Developpement d'une application mobile (AP4)</t>
   </si>
   <si>
-    <t>24/10/23-28/02/24</t>
+    <t>SESSION 2024</t>
+  </si>
+  <si>
+    <t>NOM et prénom : LEROY Rémy Arnaud</t>
+  </si>
+  <si>
+    <t>24/05/22 - 31/05/24</t>
+  </si>
+  <si>
+    <t>24/10/23 - 28/02/24</t>
+  </si>
+  <si>
+    <t>07/11/23 - 31/01/24</t>
+  </si>
+  <si>
+    <t>07/11/23 - 07/11/23</t>
+  </si>
+  <si>
+    <t>21/11/23 - 21/11/24</t>
+  </si>
+  <si>
+    <t>09/05/23 - 23/06/23</t>
+  </si>
+  <si>
+    <t>17/10/22-  17/1/22</t>
+  </si>
+  <si>
+    <t>Centre de formation : IPSSI Paris</t>
+  </si>
+  <si>
+    <t>Site web en react (Bulle)</t>
+  </si>
+  <si>
+    <t>Site web en react (Les Maçons de Provence)</t>
+  </si>
+  <si>
+    <t>28/02/24 - 24/04/24</t>
+  </si>
+  <si>
+    <t>11/12/24 - 23/02/24</t>
+  </si>
+  <si>
+    <t>04/03/24 - 23/04/24</t>
   </si>
 </sst>
 </file>
@@ -235,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -314,6 +326,14 @@
       <color theme="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -323,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -411,51 +431,6 @@
         <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
@@ -792,7 +767,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -809,17 +784,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -827,98 +793,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -930,19 +890,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1254,143 +1214,143 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ79"/>
+  <dimension ref="A1:AQ74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.44140625" customWidth="1"/>
     <col min="44" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="33"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="A2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="41"/>
+      <c r="A3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="36"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="27" t="s">
+      <c r="A4" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>24</v>
+      <c r="H4" s="20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
+      <c r="A5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="C6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="D6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="E6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="F6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="G6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="H6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1429,16 +1389,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
+      <c r="A8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1476,19 +1436,19 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23" t="s">
-        <v>30</v>
+      <c r="A9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1527,19 +1487,19 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="23" t="s">
-        <v>30</v>
+      <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1578,19 +1538,19 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="23" t="s">
-        <v>30</v>
+      <c r="A11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1629,20 +1589,20 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="A12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1680,20 +1640,20 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="22"/>
+      <c r="A13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="16"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1731,20 +1691,22 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="12"/>
+      <c r="A14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="9"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1782,20 +1744,22 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="12"/>
+      <c r="A15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="9"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1833,20 +1797,24 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="12"/>
+      <c r="A16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="9"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1884,20 +1852,20 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="12"/>
+      <c r="C17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="9"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1935,16 +1903,22 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="12"/>
+      <c r="A18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1982,24 +1956,24 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="12"/>
+      <c r="B19" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="9"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2037,26 +2011,26 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="12"/>
+      <c r="C20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="9"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -2094,16 +2068,16 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
+      <c r="A21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2141,24 +2115,24 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="12"/>
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="9"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2196,24 +2170,24 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="12"/>
+      <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="9"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2251,24 +2225,24 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="12"/>
+      <c r="A24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="9"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2306,16 +2280,16 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
+      <c r="A25" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2353,14 +2327,22 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="A26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="9"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2398,14 +2380,22 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="9"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2442,15 +2432,15 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2487,246 +2477,26 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
-      <c r="AE29"/>
-      <c r="AF29"/>
-      <c r="AG29"/>
-      <c r="AH29"/>
-      <c r="AI29"/>
-      <c r="AJ29"/>
-      <c r="AK29"/>
-      <c r="AL29"/>
-      <c r="AM29"/>
-      <c r="AN29"/>
-      <c r="AO29"/>
-      <c r="AP29"/>
-      <c r="AQ29"/>
-    </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
-      <c r="AL30"/>
-      <c r="AM30"/>
-      <c r="AN30"/>
-      <c r="AO30"/>
-      <c r="AP30"/>
-      <c r="AQ30"/>
-    </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
-      <c r="AG31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
-      <c r="AM31"/>
-      <c r="AN31"/>
-      <c r="AO31"/>
-      <c r="AP31"/>
-      <c r="AQ31"/>
-    </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-      <c r="AE32"/>
-      <c r="AF32"/>
-      <c r="AG32"/>
-      <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32"/>
-      <c r="AK32"/>
-      <c r="AL32"/>
-      <c r="AM32"/>
-      <c r="AN32"/>
-      <c r="AO32"/>
-      <c r="AP32"/>
-      <c r="AQ32"/>
-    </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
-      <c r="AG33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33"/>
-      <c r="AM33"/>
-      <c r="AN33"/>
-      <c r="AO33"/>
-      <c r="AP33"/>
-      <c r="AQ33"/>
-    </row>
-    <row r="34" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2753,11 +2523,6 @@
     <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A25:H25"/>
@@ -2775,31 +2540,17 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://rleroy77.github.io/PortefolioRL/" xr:uid="{6526391F-7004-47D5-B242-767DFC2CE2EC}"/>
+    <hyperlink ref="B5:H5" r:id="rId1" display="https://rleroy77.github.io/PortfolioRL/" xr:uid="{11B701F9-766C-47E6-90AA-39869EDAE6A8}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{9DC3E3B3-B554-401E-BE30-76A86E805D3B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FD1390579AA2DB42B60BD32A8BA9EE87" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce71b7aec8dd0a3eeb7f4eba4fd0bd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5f4da1f7-5808-483f-b15f-b2962f27b5ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f76c5cfc8403ec247850bedff2d061a3" ns2:_="">
     <xsd:import namespace="5f4da1f7-5808-483f-b15f-b2962f27b5ab"/>
@@ -2937,31 +2688,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0BFF56-BE1D-4AD9-9F23-E461DD70F79B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE4E27C2-9E50-4B05-A279-A1A1A8E00469}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5f4da1f7-5808-483f-b15f-b2962f27b5ab"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B9C3B37-CA53-4D3A-88F3-906D13649996}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2977,4 +2719,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE4E27C2-9E50-4B05-A279-A1A1A8E00469}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5f4da1f7-5808-483f-b15f-b2962f27b5ab"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A0BFF56-BE1D-4AD9-9F23-E461DD70F79B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>